--- a/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-location.xlsx
+++ b/jpcore-r4/feature/kohe-dotPackage-test/StructureDefinition-jp-location.xlsx
@@ -340,7 +340,7 @@
 </t>
   </si>
   <si>
-    <t>「リソースコンテンツの言語」(Risōsukontentsu no gengo)</t>
+    <t>「リソースコンテンツの言語」</t>
   </si>
   <si>
     <t>リソースが書かれている基本言語。</t>
@@ -352,7 +352,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>「人間の言語。」(Ningen no gengo.)</t>
+    <t>「人間の言語。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -398,7 +398,7 @@
 </t>
   </si>
   <si>
-    <t>「含まれている、インラインのリソース」(Fukuma rete iru, inrain no risōsu)</t>
+    <t>「含まれている、インラインのリソース」</t>
   </si>
   <si>
     <t>これらのリソースは、それらを含むリソースから独立した存在を持ちません。それらは独立して識別することはできず、独自の独立したトランザクション範囲を持つこともできません。</t>
@@ -489,7 +489,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>「場所がまだ使用されているかどうかを示します。」(Basho ga mada shiyou sarete iru ka dou ka wo shimeshimasu.)</t>
+    <t>「場所がまだ使用されているかどうかを示します。」</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/location-status|4.0.1</t>
@@ -619,7 +619,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>「場所で行われる機能のタイプを示します。」(Basho de okonawareru kinou no taipu wo shimesu.)</t>
+    <t>「場所で行われる機能のタイプを示します。」</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/ValueSet/v3-ServiceDeliveryLocationRoleType</t>
@@ -1266,7 +1266,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="86.25390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="43.953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
